--- a/lab3/GetData.xlsx
+++ b/lab3/GetData.xlsx
@@ -12,6 +12,7 @@
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
